--- a/excel/PeoplePosition.xlsx
+++ b/excel/PeoplePosition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">itemID</t>
   </si>
@@ -31,49 +31,31 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">aaa_position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a aa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbb_position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ccc_position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ccc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddd_position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d dd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eee_position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e ee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eee</t>
+    <t xml:space="preserve">sasaki_position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">佐々木一郎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sasaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sato_position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">佐藤二郎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanaka_position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">田中三郎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanaka</t>
   </si>
 </sst>
 </file>
@@ -180,10 +162,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -256,28 +238,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
